--- a/absensi_2025-09.xlsx
+++ b/absensi_2025-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,68 @@
           <t>10:21:00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>16:28:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lyra</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Magang</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Legal</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Dhela</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Magang</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Internal Audit</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Vinora</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Magang</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>RPD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/absensi_2025-09.xlsx
+++ b/absensi_2025-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>2025-09-17 - Jam Pulang</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 - Jam Masuk</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 - Jam Pulang</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +496,12 @@
           <t>16:28:02</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>09:11:11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,6 +521,8 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -524,6 +542,8 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -543,6 +563,29 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ambon</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Karyawan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/absensi_2025-09.xlsx
+++ b/absensi_2025-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>2025-09-19 - Jam Pulang</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-22 - Jam Masuk</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-22 - Jam Pulang</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -502,6 +512,12 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>08:11:29</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,6 +539,8 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -544,6 +562,8 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -565,6 +585,8 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -586,6 +608,104 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Imma</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Karyawan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Vhivi</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Karyawan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>10:40:27</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rangga</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Karyawan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Fery Fermansyah</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Karyawan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/absensi_2025-09.xlsx
+++ b/absensi_2025-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,26 @@
           <t>2025-09-22 - Jam Pulang</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-23 - Jam Masuk</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-23 - Jam Pulang</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-24 - Jam Masuk</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-24 - Jam Pulang</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -518,6 +538,10 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,6 +565,10 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -564,6 +592,10 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -587,6 +619,10 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -610,6 +646,10 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -633,6 +673,10 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -660,6 +704,10 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -683,6 +731,10 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -706,6 +758,68 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Benedictus Harkristanto Ardi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>magang</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>09:34:19</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Roro Ayu Kusumadevi</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Karyawan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
